--- a/Sample_Dv_Asperagus_Staging.xlsx
+++ b/Sample_Dv_Asperagus_Staging.xlsx
@@ -1994,10 +1994,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="9">
-        <v>205.161</v>
+        <v>240</v>
       </c>
       <c r="C5" s="10">
-        <v>167.969</v>
+        <v>215</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="C8" s="10">
         <f>C7*C5</f>
-        <v>167.969</v>
+        <v>215</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
